--- a/biology/Zoologie/Cetonia/Cetonia.xlsx
+++ b/biology/Zoologie/Cetonia/Cetonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cetonia est un genre d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae, de la sous-famille des Cetoniinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cetonia asiatica Gory &amp; Percheron 1833
 Cetonia aurata (Linnaeus 1761) - Cétoine dorée
@@ -549,9 +563,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 août 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 août 2014) :
 Cetonia aeratula
 Cetonia angulicollis
 Cetonia asiatica
@@ -584,7 +600,7 @@
 Cetonia viridescens
 Cetonia viridiopaca
 Cetonia wrzecionkoi
-Selon NCBI  (29 août 2014)[2] :
+Selon NCBI  (29 août 2014) :
 Cetonia aurata
 sous-espèce Cetonia aurata aurata
 sous-espèce Cetonia aurata pisana
@@ -619,7 +635,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cetonia elegans Leoni, 1910, un synonyme de Cetonia aurata pisana, une sous-espèce (Cetoniini) de la cétoine dorée
 Cetonia elegans Fabricius, 1781, un synonyme de Heterorrhina elegans, une espèce (Goliathini) trouvée en Inde et au Sri Lanka</t>
